--- a/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
+++ b/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
@@ -49,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -82,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,7 +383,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,10 +420,10 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3">
         <v>42529</v>
@@ -434,10 +437,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1000</v>
+        <v>6</v>
       </c>
       <c r="E3" s="3">
         <v>42530</v>
@@ -451,10 +454,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>1500</v>
+        <v>7</v>
       </c>
       <c r="E4" s="3">
         <v>42531</v>
@@ -468,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
         <v>42532</v>

--- a/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
+++ b/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
@@ -50,7 +50,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -85,7 +85,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -383,7 +383,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -473,9 +473,6 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5">
-        <v>8</v>
-      </c>
       <c r="E5" s="3">
         <v>42532</v>
       </c>

--- a/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
+++ b/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
@@ -7,9 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="creditlimit_data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -383,7 +381,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,28 +479,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
+++ b/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
@@ -79,11 +79,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,16 +382,17 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -400,78 +402,78 @@
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>5</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="4">
         <v>42529</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>6</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="4">
         <v>42530</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>42531</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>42532</v>
       </c>
     </row>

--- a/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
+++ b/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
@@ -79,12 +79,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,98 +391,101 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="15.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="3">
         <v>5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="5">
         <v>42529</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>6</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="5">
         <v>42530</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>3</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="5">
         <v>42531</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="E5" s="4">
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5">
         <v>42532</v>
       </c>
     </row>

--- a/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
+++ b/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>0000014</t>
   </si>
@@ -391,7 +391,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -425,9 +425,7 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="3">
         <v>1</v>
       </c>
@@ -464,9 +462,6 @@
       </c>
       <c r="C4" s="3">
         <v>3</v>
-      </c>
-      <c r="D4" s="3">
-        <v>7</v>
       </c>
       <c r="E4" s="5">
         <v>42531</v>

--- a/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
+++ b/public/assets/uploads/Uploads/credit_limit/creditlimit_data.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
-  <si>
-    <t>0000014</t>
-  </si>
-  <si>
-    <t>abc6</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Distributor Code</t>
   </si>
@@ -36,20 +30,11 @@
   <si>
     <t>Credit Limit</t>
   </si>
-  <si>
-    <t>0000024</t>
-  </si>
-  <si>
-    <t>abc7</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
-  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -79,19 +64,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -388,10 +367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -406,82 +385,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5">
-        <v>42529</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3">
-        <v>6</v>
-      </c>
-      <c r="E3" s="5">
-        <v>42530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
-        <v>3</v>
-      </c>
-      <c r="E4" s="5">
-        <v>42531</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5">
-        <v>42532</v>
       </c>
     </row>
   </sheetData>
